--- a/data/trans_orig/P32D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F383FE-7D7E-40DE-8A20-F4791155ED0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CA60A4-4E38-4B21-85A8-B50A32FBAD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46FF13F6-2B90-45FC-9952-98D19208AE82}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6C47E72-9523-4C13-B155-FFEC3112D694}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="291">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,41%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>49,76%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
   </si>
   <si>
     <t>No en los últimos 12 meses</t>
@@ -104,28 +104,28 @@
     <t>40,06%</t>
   </si>
   <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
   </si>
   <si>
     <t>29,21%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>Menos de una vez al mes</t>
@@ -134,28 +134,28 @@
     <t>21,55%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>Una vez al mes</t>
@@ -164,757 +164,748 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 días en un mes</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
     <t>3,58%</t>
   </si>
   <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>De 1 a 2 días por semana</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>De 3 a 4 días por semana</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>De 5 a 6 días por semana</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>A diario o casi a diario</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>De 2 a 3 días en un mes</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>De 1 a 2 días por semana</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>De 3 a 4 días por semana</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>De 5 a 6 días por semana</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>A diario o casi a diario</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1329,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF45E55-8352-491B-8129-C4CF80C433B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72B6C7-E729-4AEA-AEC8-9985CB9387A1}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1687,19 +1678,19 @@
         <v>11609</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
@@ -1708,13 +1699,13 @@
         <v>7871</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1723,13 +1714,13 @@
         <v>1721</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -1738,19 +1729,19 @@
         <v>9592</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -1759,13 +1750,13 @@
         <v>3661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1774,13 +1765,13 @@
         <v>491</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1789,19 +1780,19 @@
         <v>4153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -1810,13 +1801,13 @@
         <v>2160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1825,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1840,19 +1831,19 @@
         <v>2160</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12" s="7">
         <v>8</v>
@@ -1861,13 +1852,13 @@
         <v>5742</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1876,13 +1867,13 @@
         <v>2693</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -1891,13 +1882,13 @@
         <v>8436</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1903,13 @@
         <v>251500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -1927,13 +1918,13 @@
         <v>72963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -1942,18 +1933,18 @@
         <v>324463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1965,13 +1956,13 @@
         <v>195668</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -1980,13 +1971,13 @@
         <v>325806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>482</v>
@@ -1995,13 +1986,13 @@
         <v>521475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2007,13 @@
         <v>421738</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H15" s="7">
         <v>244</v>
@@ -2031,13 +2022,13 @@
         <v>190009</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M15" s="7">
         <v>655</v>
@@ -2046,13 +2037,13 @@
         <v>611747</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2058,13 @@
         <v>212896</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -2082,13 +2073,13 @@
         <v>92008</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>292</v>
@@ -2097,13 +2088,13 @@
         <v>304904</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2109,13 @@
         <v>74892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2133,13 +2124,13 @@
         <v>22621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -2148,13 +2139,13 @@
         <v>97512</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2160,13 @@
         <v>46536</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -2184,13 +2175,13 @@
         <v>13394</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -2199,19 +2190,19 @@
         <v>59930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="7">
         <v>26</v>
@@ -2220,13 +2211,13 @@
         <v>32514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2235,13 +2226,13 @@
         <v>7228</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2250,19 +2241,19 @@
         <v>39742</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -2271,13 +2262,13 @@
         <v>1573</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2286,13 +2277,13 @@
         <v>2473</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2301,19 +2292,19 @@
         <v>4046</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
@@ -2322,13 +2313,13 @@
         <v>3814</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2337,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -2352,19 +2343,19 @@
         <v>3814</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C22" s="7">
         <v>13</v>
@@ -2373,13 +2364,13 @@
         <v>12838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2388,13 +2379,13 @@
         <v>2203</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -2403,13 +2394,13 @@
         <v>15041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2415,13 @@
         <v>1002469</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H23" s="7">
         <v>719</v>
@@ -2439,13 +2430,13 @@
         <v>655742</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M23" s="7">
         <v>1635</v>
@@ -2454,18 +2445,18 @@
         <v>1658212</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2477,13 +2468,13 @@
         <v>82834</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -2492,13 +2483,13 @@
         <v>105965</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>240</v>
@@ -2507,13 +2498,13 @@
         <v>188798</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2519,13 @@
         <v>139581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>116</v>
@@ -2543,13 +2534,13 @@
         <v>75313</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
@@ -2558,13 +2549,13 @@
         <v>214893</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2570,13 @@
         <v>73379</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -2594,13 +2585,13 @@
         <v>43798</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>124</v>
@@ -2609,13 +2600,13 @@
         <v>117177</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2621,13 @@
         <v>24990</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -2645,13 +2636,13 @@
         <v>6242</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -2660,13 +2651,13 @@
         <v>31232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2672,13 @@
         <v>9206</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -2696,13 +2687,13 @@
         <v>12081</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -2711,19 +2702,19 @@
         <v>21288</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7">
         <v>14</v>
@@ -2732,13 +2723,13 @@
         <v>14830</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -2747,13 +2738,13 @@
         <v>13491</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -2762,19 +2753,19 @@
         <v>28321</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -2783,13 +2774,13 @@
         <v>754</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2798,13 +2789,13 @@
         <v>1558</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2813,19 +2804,19 @@
         <v>2312</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -2834,13 +2825,13 @@
         <v>757</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2849,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2864,19 +2855,19 @@
         <v>757</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -2885,10 +2876,10 @@
         <v>1797</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>225</v>
@@ -2903,7 +2894,7 @@
         <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>227</v>
@@ -2915,13 +2906,13 @@
         <v>3631</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2927,13 @@
         <v>348129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H33" s="7">
         <v>357</v>
@@ -2951,13 +2942,13 @@
         <v>260282</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M33" s="7">
         <v>701</v>
@@ -2966,13 +2957,13 @@
         <v>608410</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2980,13 @@
         <v>329826</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>519</v>
@@ -3004,13 +2995,13 @@
         <v>468077</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>854</v>
@@ -3019,13 +3010,13 @@
         <v>797904</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3031,13 @@
         <v>662072</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>395</v>
@@ -3055,13 +3046,13 @@
         <v>286632</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>1075</v>
@@ -3070,13 +3061,13 @@
         <v>948704</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3082,13 @@
         <v>340467</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>172</v>
@@ -3106,13 +3097,13 @@
         <v>141885</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>485</v>
@@ -3121,13 +3112,13 @@
         <v>482351</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3133,13 @@
         <v>115970</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>43</v>
@@ -3157,13 +3148,13 @@
         <v>31324</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>142</v>
@@ -3172,13 +3163,13 @@
         <v>147294</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3184,13 @@
         <v>65450</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
@@ -3208,13 +3199,13 @@
         <v>27377</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>89</v>
@@ -3223,19 +3214,19 @@
         <v>92827</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7">
         <v>47</v>
@@ -3244,13 +3235,13 @@
         <v>55215</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>271</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>272</v>
+        <v>143</v>
       </c>
       <c r="H39" s="7">
         <v>25</v>
@@ -3259,13 +3250,13 @@
         <v>22440</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K39" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="L39" s="7" t="s">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="M39" s="7">
         <v>72</v>
@@ -3274,19 +3265,19 @@
         <v>77655</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>275</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" s="7">
         <v>8</v>
@@ -3295,13 +3286,13 @@
         <v>5989</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3310,13 +3301,13 @@
         <v>4522</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>14</v>
@@ -3325,19 +3316,19 @@
         <v>10511</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C41" s="7">
         <v>6</v>
@@ -3346,13 +3337,13 @@
         <v>6731</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3361,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -3376,19 +3367,19 @@
         <v>6731</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>285</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C42" s="7">
         <v>23</v>
@@ -3397,13 +3388,13 @@
         <v>20377</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
@@ -3412,13 +3403,13 @@
         <v>6731</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>290</v>
+        <v>158</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M42" s="7">
         <v>30</v>
@@ -3427,13 +3418,13 @@
         <v>27108</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>292</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3439,13 @@
         <v>1602097</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H43" s="7">
         <v>1197</v>
@@ -3463,13 +3454,13 @@
         <v>988987</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M43" s="7">
         <v>2767</v>
@@ -3478,18 +3469,18 @@
         <v>2591085</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CA60A4-4E38-4B21-85A8-B50A32FBAD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADBBA025-036E-4CA2-8539-66A33DB6B0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6C47E72-9523-4C13-B155-FFEC3112D694}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{892D7F5B-CCA9-4229-8689-A68F6BD042CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE72B6C7-E729-4AEA-AEC8-9985CB9387A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8430CA35-B3E3-42D7-BBF1-45D408899B34}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P32D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADBBA025-036E-4CA2-8539-66A33DB6B0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F686D6-69B9-40DD-AF5F-0692DE8E6C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{892D7F5B-CCA9-4229-8689-A68F6BD042CD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB19A4D7-D748-45E0-B8B4-D9776DB565F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="294">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,838 +74,847 @@
     <t>20,41%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
   </si>
   <si>
     <t>49,76%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>No en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>Menos de una vez al mes</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>Una vez al mes</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 días en un mes</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>De 1 a 2 días por semana</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>De 3 a 4 días por semana</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>De 5 a 6 días por semana</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>A diario o casi a diario</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
     <t>22,89%</t>
   </si>
   <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>No en los últimos 12 meses</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>Menos de una vez al mes</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>Una vez al mes</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>De 2 a 3 días en un mes</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>De 1 a 2 días por semana</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>De 3 a 4 días por semana</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>De 5 a 6 días por semana</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>A diario o casi a diario</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1320,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8430CA35-B3E3-42D7-BBF1-45D408899B34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A1D887-6E17-4F8A-8589-1E01C759AACD}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1678,19 +1687,19 @@
         <v>11609</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
@@ -1699,13 +1708,13 @@
         <v>7871</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1714,13 +1723,13 @@
         <v>1721</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -1729,19 +1738,19 @@
         <v>9592</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -1750,13 +1759,13 @@
         <v>3661</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1765,13 +1774,13 @@
         <v>491</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1780,19 +1789,19 @@
         <v>4153</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -1801,13 +1810,13 @@
         <v>2160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1816,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1831,19 +1840,19 @@
         <v>2160</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" s="7">
         <v>8</v>
@@ -1852,13 +1861,13 @@
         <v>5742</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1867,13 +1876,13 @@
         <v>2693</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -1882,13 +1891,13 @@
         <v>8436</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,13 +1912,13 @@
         <v>251500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -1918,13 +1927,13 @@
         <v>72963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -1933,18 +1942,18 @@
         <v>324463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1956,13 +1965,13 @@
         <v>195668</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
@@ -1971,13 +1980,13 @@
         <v>325806</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>482</v>
@@ -1986,13 +1995,13 @@
         <v>521475</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2016,13 @@
         <v>421738</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H15" s="7">
         <v>244</v>
@@ -2022,13 +2031,13 @@
         <v>190009</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M15" s="7">
         <v>655</v>
@@ -2037,13 +2046,13 @@
         <v>611747</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2067,13 @@
         <v>212896</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -2073,13 +2082,13 @@
         <v>92008</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>292</v>
@@ -2088,13 +2097,13 @@
         <v>304904</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,13 +2118,13 @@
         <v>74892</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2124,13 +2133,13 @@
         <v>22621</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -2139,13 +2148,13 @@
         <v>97512</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,13 +2169,13 @@
         <v>46536</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -2175,13 +2184,13 @@
         <v>13394</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -2190,19 +2199,19 @@
         <v>59930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="7">
         <v>26</v>
@@ -2211,13 +2220,13 @@
         <v>32514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2226,13 +2235,13 @@
         <v>7228</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2241,19 +2250,19 @@
         <v>39742</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -2262,13 +2271,13 @@
         <v>1573</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2277,13 +2286,13 @@
         <v>2473</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2292,19 +2301,19 @@
         <v>4046</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
@@ -2313,13 +2322,13 @@
         <v>3814</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2328,13 +2337,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -2343,19 +2352,19 @@
         <v>3814</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" s="7">
         <v>13</v>
@@ -2364,13 +2373,13 @@
         <v>12838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2379,13 +2388,13 @@
         <v>2203</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -2394,13 +2403,13 @@
         <v>15041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,13 +2424,13 @@
         <v>1002469</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H23" s="7">
         <v>719</v>
@@ -2430,13 +2439,13 @@
         <v>655742</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M23" s="7">
         <v>1635</v>
@@ -2445,18 +2454,18 @@
         <v>1658212</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2468,13 +2477,13 @@
         <v>82834</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -2483,13 +2492,13 @@
         <v>105965</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>240</v>
@@ -2498,13 +2507,13 @@
         <v>188798</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2528,13 @@
         <v>139581</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>116</v>
@@ -2534,13 +2543,13 @@
         <v>75313</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
@@ -2549,13 +2558,13 @@
         <v>214893</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2579,13 @@
         <v>73379</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -2585,13 +2594,13 @@
         <v>43798</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>124</v>
@@ -2600,13 +2609,13 @@
         <v>117177</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2630,13 @@
         <v>24990</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -2636,13 +2645,13 @@
         <v>6242</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -2651,13 +2660,13 @@
         <v>31232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2681,13 @@
         <v>9206</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -2687,13 +2696,13 @@
         <v>12081</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -2702,19 +2711,19 @@
         <v>21288</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="7">
         <v>14</v>
@@ -2723,13 +2732,13 @@
         <v>14830</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -2738,13 +2747,13 @@
         <v>13491</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -2753,19 +2762,19 @@
         <v>28321</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -2774,13 +2783,13 @@
         <v>754</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2789,13 +2798,13 @@
         <v>1558</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2804,19 +2813,19 @@
         <v>2312</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -2825,13 +2834,13 @@
         <v>757</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2840,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2855,19 +2864,19 @@
         <v>757</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -2876,10 +2885,10 @@
         <v>1797</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>225</v>
@@ -2894,7 +2903,7 @@
         <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>227</v>
@@ -2906,13 +2915,13 @@
         <v>3631</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2936,13 @@
         <v>348129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H33" s="7">
         <v>357</v>
@@ -2942,13 +2951,13 @@
         <v>260282</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M33" s="7">
         <v>701</v>
@@ -2957,13 +2966,13 @@
         <v>608410</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2989,13 @@
         <v>329826</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>519</v>
@@ -2995,13 +3004,13 @@
         <v>468077</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>854</v>
@@ -3010,13 +3019,13 @@
         <v>797904</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3040,13 @@
         <v>662072</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>395</v>
@@ -3046,13 +3055,13 @@
         <v>286632</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>1075</v>
@@ -3061,13 +3070,13 @@
         <v>948704</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3091,13 @@
         <v>340467</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>172</v>
@@ -3097,13 +3106,13 @@
         <v>141885</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>485</v>
@@ -3112,13 +3121,13 @@
         <v>482351</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3142,13 @@
         <v>115970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>43</v>
@@ -3148,13 +3157,13 @@
         <v>31324</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>142</v>
@@ -3163,13 +3172,13 @@
         <v>147294</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3193,13 @@
         <v>65450</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
@@ -3199,13 +3208,13 @@
         <v>27377</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>89</v>
@@ -3214,19 +3223,19 @@
         <v>92827</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7">
         <v>47</v>
@@ -3235,13 +3244,13 @@
         <v>55215</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>271</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c r="H39" s="7">
         <v>25</v>
@@ -3250,13 +3259,13 @@
         <v>22440</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="M39" s="7">
         <v>72</v>
@@ -3265,19 +3274,19 @@
         <v>77655</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>76</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="7">
         <v>8</v>
@@ -3286,13 +3295,13 @@
         <v>5989</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3301,13 +3310,13 @@
         <v>4522</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>14</v>
@@ -3316,19 +3325,19 @@
         <v>10511</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" s="7">
         <v>6</v>
@@ -3337,13 +3346,13 @@
         <v>6731</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>142</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3352,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
@@ -3367,19 +3376,19 @@
         <v>6731</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" s="7">
         <v>23</v>
@@ -3388,13 +3397,13 @@
         <v>20377</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
@@ -3403,13 +3412,13 @@
         <v>6731</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M42" s="7">
         <v>30</v>
@@ -3418,13 +3427,13 @@
         <v>27108</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>84</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3448,13 @@
         <v>1602097</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H43" s="7">
         <v>1197</v>
@@ -3454,13 +3463,13 @@
         <v>988987</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M43" s="7">
         <v>2767</v>
@@ -3469,18 +3478,18 @@
         <v>2591085</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F686D6-69B9-40DD-AF5F-0692DE8E6C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65BBBE31-C1EF-49F3-B6FD-AEE753905619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB19A4D7-D748-45E0-B8B4-D9776DB565F2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6FDC1CB1-A81E-4C55-91D5-3A9E88EE3C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="295">
   <si>
     <t>Población según si en los últimos 12 meses ha tomado 6/5 (Hombre/Mujer) o más bebidas estándar en una misma ocasión en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -71,850 +71,853 @@
     <t>Nunca en toda mi vida</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>No en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>Menos de una vez al mes</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>No en los últimos 12 meses</t>
-  </si>
-  <si>
-    <t>40,06%</t>
+    <t>Una vez al mes</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>De 2 a 3 días en un mes</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>De 1 a 2 días por semana</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>De 3 a 4 días por semana</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>De 5 a 6 días por semana</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>A diario o casi a diario</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>Menos de una vez al mes</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>Una vez al mes</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>De 2 a 3 días en un mes</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>De 1 a 2 días por semana</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>De 3 a 4 días por semana</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>De 5 a 6 días por semana</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>A diario o casi a diario</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1329,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A1D887-6E17-4F8A-8589-1E01C759AACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FE24B1-BAD6-4F61-8668-82A91FF07C4F}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1450,7 +1453,7 @@
         <v>69</v>
       </c>
       <c r="D4" s="7">
-        <v>51324</v>
+        <v>51243</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1465,7 +1468,7 @@
         <v>63</v>
       </c>
       <c r="I4" s="7">
-        <v>36306</v>
+        <v>34157</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1480,7 +1483,7 @@
         <v>132</v>
       </c>
       <c r="N4" s="7">
-        <v>87630</v>
+        <v>85400</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1501,7 +1504,7 @@
         <v>132</v>
       </c>
       <c r="D5" s="7">
-        <v>100753</v>
+        <v>96441</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1516,7 +1519,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>21310</v>
+        <v>19002</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1531,7 +1534,7 @@
         <v>167</v>
       </c>
       <c r="N5" s="7">
-        <v>122064</v>
+        <v>115443</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1552,7 +1555,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="7">
-        <v>54192</v>
+        <v>50641</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1567,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>6079</v>
+        <v>5587</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1582,7 +1585,7 @@
         <v>69</v>
       </c>
       <c r="N6" s="7">
-        <v>60270</v>
+        <v>56228</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1603,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>16088</v>
+        <v>14785</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1618,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>2462</v>
+        <v>2270</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1633,7 +1636,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>18549</v>
+        <v>17055</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1654,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>9708</v>
+        <v>8797</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1669,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>1901</v>
+        <v>1724</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1684,10 +1687,10 @@
         <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>11609</v>
+        <v>10522</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>57</v>
@@ -1705,7 +1708,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>7871</v>
+        <v>7278</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1720,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1721</v>
+        <v>1609</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>63</v>
@@ -1735,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="N9" s="7">
-        <v>9592</v>
+        <v>8888</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>66</v>
@@ -1756,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>3661</v>
+        <v>3399</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -1765,58 +1768,58 @@
         <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>491</v>
+        <v>455</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>4153</v>
+        <v>3854</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2160</v>
+        <v>1988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1825,79 +1828,79 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>2160</v>
+        <v>1988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12" s="7">
         <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>5742</v>
+        <v>5626</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>2693</v>
+        <v>1188</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>8436</v>
+        <v>6814</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,51 +1912,51 @@
         <v>310</v>
       </c>
       <c r="D13" s="7">
-        <v>251500</v>
+        <v>240198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
       </c>
       <c r="I13" s="7">
-        <v>72963</v>
+        <v>65993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
       </c>
       <c r="N13" s="7">
-        <v>324463</v>
+        <v>306191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1962,46 +1965,46 @@
         <v>176</v>
       </c>
       <c r="D14" s="7">
-        <v>195668</v>
+        <v>208260</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>306</v>
       </c>
       <c r="I14" s="7">
-        <v>325806</v>
+        <v>409115</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>482</v>
       </c>
       <c r="N14" s="7">
-        <v>521475</v>
+        <v>617375</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,46 +2016,46 @@
         <v>411</v>
       </c>
       <c r="D15" s="7">
-        <v>421738</v>
+        <v>404918</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H15" s="7">
         <v>244</v>
       </c>
       <c r="I15" s="7">
-        <v>190009</v>
+        <v>172263</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M15" s="7">
         <v>655</v>
       </c>
       <c r="N15" s="7">
-        <v>611747</v>
+        <v>577180</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,46 +2067,46 @@
         <v>185</v>
       </c>
       <c r="D16" s="7">
-        <v>212896</v>
+        <v>204601</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
       </c>
       <c r="I16" s="7">
-        <v>92008</v>
+        <v>83643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>292</v>
       </c>
       <c r="N16" s="7">
-        <v>304904</v>
+        <v>288244</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,46 +2118,46 @@
         <v>60</v>
       </c>
       <c r="D17" s="7">
-        <v>74892</v>
+        <v>73210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>22621</v>
+        <v>20742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
       </c>
       <c r="N17" s="7">
-        <v>97512</v>
+        <v>93952</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,46 +2169,46 @@
         <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>46536</v>
+        <v>43853</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
       </c>
       <c r="I18" s="7">
-        <v>13394</v>
+        <v>12216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
       </c>
       <c r="N18" s="7">
-        <v>59930</v>
+        <v>56069</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,46 +2220,46 @@
         <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>32514</v>
+        <v>30924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>7228</v>
+        <v>6489</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
       </c>
       <c r="N19" s="7">
-        <v>39742</v>
+        <v>37413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,67 +2271,67 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1573</v>
+        <v>1497</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>2473</v>
+        <v>2318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>4046</v>
+        <v>3815</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>3814</v>
+        <v>3554</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2337,79 +2340,79 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>3814</v>
+        <v>3554</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C22" s="7">
         <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>12838</v>
+        <v>11763</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>2203</v>
+        <v>1926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>15041</v>
+        <v>13689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,51 +2424,51 @@
         <v>916</v>
       </c>
       <c r="D23" s="7">
-        <v>1002469</v>
+        <v>982579</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>719</v>
       </c>
       <c r="I23" s="7">
-        <v>655742</v>
+        <v>708712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M23" s="7">
         <v>1635</v>
       </c>
       <c r="N23" s="7">
-        <v>1658212</v>
+        <v>1691290</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2474,46 +2477,46 @@
         <v>90</v>
       </c>
       <c r="D24" s="7">
-        <v>82834</v>
+        <v>83794</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
       </c>
       <c r="I24" s="7">
-        <v>105965</v>
+        <v>102148</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>240</v>
       </c>
       <c r="N24" s="7">
-        <v>188798</v>
+        <v>185942</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,46 +2528,46 @@
         <v>137</v>
       </c>
       <c r="D25" s="7">
-        <v>139581</v>
+        <v>135153</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>116</v>
       </c>
       <c r="I25" s="7">
-        <v>75313</v>
+        <v>70172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
       </c>
       <c r="N25" s="7">
-        <v>214893</v>
+        <v>205325</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,46 +2579,46 @@
         <v>69</v>
       </c>
       <c r="D26" s="7">
-        <v>73379</v>
+        <v>69260</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
       </c>
       <c r="I26" s="7">
-        <v>43798</v>
+        <v>40532</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>124</v>
       </c>
       <c r="N26" s="7">
-        <v>117177</v>
+        <v>109792</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,46 +2630,46 @@
         <v>22</v>
       </c>
       <c r="D27" s="7">
-        <v>24990</v>
+        <v>28524</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>6242</v>
+        <v>5951</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
       </c>
       <c r="N27" s="7">
-        <v>31232</v>
+        <v>34476</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,46 +2681,46 @@
         <v>8</v>
       </c>
       <c r="D28" s="7">
-        <v>9206</v>
+        <v>8873</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
       </c>
       <c r="I28" s="7">
-        <v>12081</v>
+        <v>11282</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
       </c>
       <c r="N28" s="7">
-        <v>21288</v>
+        <v>20155</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,46 +2732,46 @@
         <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>14830</v>
+        <v>13448</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
       </c>
       <c r="I29" s="7">
-        <v>13491</v>
+        <v>12129</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
       </c>
       <c r="N29" s="7">
-        <v>28321</v>
+        <v>25577</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,67 +2783,67 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>754</v>
+        <v>658</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>1558</v>
+        <v>1161</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>2312</v>
+        <v>1819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2849,79 +2852,79 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>757</v>
+        <v>722</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1797</v>
+        <v>1568</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>1834</v>
+        <v>1582</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>3631</v>
+        <v>3150</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,46 +2936,46 @@
         <v>344</v>
       </c>
       <c r="D33" s="7">
-        <v>348129</v>
+        <v>342000</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H33" s="7">
         <v>357</v>
       </c>
       <c r="I33" s="7">
-        <v>260282</v>
+        <v>244958</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M33" s="7">
         <v>701</v>
       </c>
       <c r="N33" s="7">
-        <v>608410</v>
+        <v>586958</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,46 +2989,46 @@
         <v>335</v>
       </c>
       <c r="D34" s="7">
-        <v>329826</v>
+        <v>343297</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>519</v>
       </c>
       <c r="I34" s="7">
-        <v>468077</v>
+        <v>545420</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>854</v>
       </c>
       <c r="N34" s="7">
-        <v>797904</v>
+        <v>888717</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,46 +3040,46 @@
         <v>680</v>
       </c>
       <c r="D35" s="7">
-        <v>662072</v>
+        <v>636511</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>395</v>
       </c>
       <c r="I35" s="7">
-        <v>286632</v>
+        <v>261438</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>1075</v>
       </c>
       <c r="N35" s="7">
-        <v>948704</v>
+        <v>897949</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,46 +3091,46 @@
         <v>313</v>
       </c>
       <c r="D36" s="7">
-        <v>340467</v>
+        <v>324501</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>172</v>
       </c>
       <c r="I36" s="7">
-        <v>141885</v>
+        <v>129762</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>485</v>
       </c>
       <c r="N36" s="7">
-        <v>482351</v>
+        <v>454263</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,46 +3142,46 @@
         <v>99</v>
       </c>
       <c r="D37" s="7">
-        <v>115970</v>
+        <v>116519</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>43</v>
       </c>
       <c r="I37" s="7">
-        <v>31324</v>
+        <v>28964</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>142</v>
       </c>
       <c r="N37" s="7">
-        <v>147294</v>
+        <v>145483</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,46 +3193,46 @@
         <v>59</v>
       </c>
       <c r="D38" s="7">
-        <v>65450</v>
+        <v>61524</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
       </c>
       <c r="I38" s="7">
-        <v>27377</v>
+        <v>25222</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>89</v>
       </c>
       <c r="N38" s="7">
-        <v>92827</v>
+        <v>86746</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,46 +3244,46 @@
         <v>47</v>
       </c>
       <c r="D39" s="7">
-        <v>55215</v>
+        <v>51650</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H39" s="7">
         <v>25</v>
       </c>
       <c r="I39" s="7">
-        <v>22440</v>
+        <v>20227</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M39" s="7">
         <v>72</v>
       </c>
       <c r="N39" s="7">
-        <v>77655</v>
+        <v>71877</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,67 +3295,67 @@
         <v>8</v>
       </c>
       <c r="D40" s="7">
-        <v>5989</v>
+        <v>5554</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
       </c>
       <c r="I40" s="7">
-        <v>4522</v>
+        <v>3933</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M40" s="7">
         <v>14</v>
       </c>
       <c r="N40" s="7">
-        <v>10511</v>
+        <v>9487</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>282</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="7">
         <v>6</v>
       </c>
       <c r="D41" s="7">
-        <v>6731</v>
+        <v>6265</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>142</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3361,79 +3364,79 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
       </c>
       <c r="N41" s="7">
-        <v>6731</v>
+        <v>6265</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C42" s="7">
         <v>23</v>
       </c>
       <c r="D42" s="7">
-        <v>20377</v>
+        <v>18957</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>287</v>
+        <v>166</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>288</v>
+        <v>90</v>
       </c>
       <c r="H42" s="7">
         <v>7</v>
       </c>
       <c r="I42" s="7">
-        <v>6731</v>
+        <v>4696</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M42" s="7">
         <v>30</v>
       </c>
       <c r="N42" s="7">
-        <v>27108</v>
+        <v>23653</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,51 +3448,51 @@
         <v>1570</v>
       </c>
       <c r="D43" s="7">
-        <v>1602097</v>
+        <v>1564777</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H43" s="7">
         <v>1197</v>
       </c>
       <c r="I43" s="7">
-        <v>988987</v>
+        <v>1019663</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M43" s="7">
         <v>2767</v>
       </c>
       <c r="N43" s="7">
-        <v>2591085</v>
+        <v>2584440</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
